--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H2">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N2">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O2">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P2">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q2">
-        <v>124.412152068528</v>
+        <v>284.8641011238743</v>
       </c>
       <c r="R2">
-        <v>1119.709368616752</v>
+        <v>2563.776910114868</v>
       </c>
       <c r="S2">
-        <v>0.008928349922480351</v>
+        <v>0.009345489975900794</v>
       </c>
       <c r="T2">
-        <v>0.008928349922480349</v>
+        <v>0.009345489975900793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H3">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q3">
-        <v>123.0300386024018</v>
+        <v>272.8063198290765</v>
       </c>
       <c r="R3">
-        <v>1107.270347421616</v>
+        <v>2455.256878461688</v>
       </c>
       <c r="S3">
-        <v>0.008829163529085677</v>
+        <v>0.008949912317018692</v>
       </c>
       <c r="T3">
-        <v>0.008829163529085677</v>
+        <v>0.008949912317018692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H4">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N4">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q4">
-        <v>83.17737071272845</v>
+        <v>419.9752972614003</v>
       </c>
       <c r="R4">
-        <v>748.5963364145559</v>
+        <v>3779.777675352602</v>
       </c>
       <c r="S4">
-        <v>0.005969165061513071</v>
+        <v>0.01377806089007904</v>
       </c>
       <c r="T4">
-        <v>0.00596916506151307</v>
+        <v>0.01377806089007904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H5">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N5">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O5">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P5">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q5">
-        <v>24.66334307911178</v>
+        <v>42.83704537615377</v>
       </c>
       <c r="R5">
-        <v>221.970087712006</v>
+        <v>385.533408385384</v>
       </c>
       <c r="S5">
-        <v>0.001769947337195831</v>
+        <v>0.001405347941634689</v>
       </c>
       <c r="T5">
-        <v>0.001769947337195831</v>
+        <v>0.001405347941634689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.98375</v>
       </c>
       <c r="I6">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J6">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N6">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O6">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P6">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q6">
-        <v>3965.61951489</v>
+        <v>4094.894303139445</v>
       </c>
       <c r="R6">
-        <v>35690.57563401</v>
+        <v>36854.048728255</v>
       </c>
       <c r="S6">
-        <v>0.2845898740570963</v>
+        <v>0.1343405276810279</v>
       </c>
       <c r="T6">
-        <v>0.2845898740570963</v>
+        <v>0.1343405276810278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.98375</v>
       </c>
       <c r="I7">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J7">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q7">
         <v>3921.564846258889</v>
@@ -883,10 +883,10 @@
         <v>35294.08361633</v>
       </c>
       <c r="S7">
-        <v>0.2814283219842665</v>
+        <v>0.1286541365372692</v>
       </c>
       <c r="T7">
-        <v>0.2814283219842665</v>
+        <v>0.1286541365372692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.98375</v>
       </c>
       <c r="I8">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J8">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N8">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q8">
-        <v>2651.266769454723</v>
+        <v>6037.104870111945</v>
       </c>
       <c r="R8">
-        <v>23861.4009250925</v>
+        <v>54333.9438310075</v>
       </c>
       <c r="S8">
-        <v>0.1902662807608796</v>
+        <v>0.1980583121021582</v>
       </c>
       <c r="T8">
-        <v>0.1902662807608796</v>
+        <v>0.1980583121021582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.98375</v>
       </c>
       <c r="I9">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J9">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N9">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O9">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P9">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q9">
-        <v>786.1405255901391</v>
+        <v>615.7784444655555</v>
       </c>
       <c r="R9">
-        <v>7075.264730311251</v>
+        <v>5542.006000189999</v>
       </c>
       <c r="S9">
-        <v>0.05641681768228918</v>
+        <v>0.0202017427167004</v>
       </c>
       <c r="T9">
-        <v>0.05641681768228916</v>
+        <v>0.0202017427167004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H10">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N10">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O10">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P10">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q10">
-        <v>750.8406559272961</v>
+        <v>4088.885174328443</v>
       </c>
       <c r="R10">
-        <v>6757.565903345664</v>
+        <v>36799.96656895598</v>
       </c>
       <c r="S10">
-        <v>0.05388354755290335</v>
+        <v>0.1341433871749215</v>
       </c>
       <c r="T10">
-        <v>0.05388354755290332</v>
+        <v>0.1341433871749214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H11">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q11">
-        <v>742.4994532053903</v>
+        <v>3915.81007298335</v>
       </c>
       <c r="R11">
-        <v>6682.495078848513</v>
+        <v>35242.29065685015</v>
       </c>
       <c r="S11">
-        <v>0.05328494705096444</v>
+        <v>0.1284653406316147</v>
       </c>
       <c r="T11">
-        <v>0.05328494705096443</v>
+        <v>0.1284653406316147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H12">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N12">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q12">
-        <v>501.9843363038436</v>
+        <v>6028.245608278931</v>
       </c>
       <c r="R12">
-        <v>4517.859026734593</v>
+        <v>54254.21047451038</v>
       </c>
       <c r="S12">
-        <v>0.03602455013925072</v>
+        <v>0.1977676677481394</v>
       </c>
       <c r="T12">
-        <v>0.03602455013925072</v>
+        <v>0.1977676677481393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H13">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N13">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O13">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P13">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q13">
-        <v>148.8459156681103</v>
+        <v>614.8748089336212</v>
       </c>
       <c r="R13">
-        <v>1339.613241012992</v>
+        <v>5533.873280402591</v>
       </c>
       <c r="S13">
-        <v>0.0106818216510304</v>
+        <v>0.02017209729359429</v>
       </c>
       <c r="T13">
-        <v>0.0106818216510304</v>
+        <v>0.02017209729359429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H14">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N14">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O14">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P14">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q14">
-        <v>38.68126193435999</v>
+        <v>40.14426525958311</v>
       </c>
       <c r="R14">
-        <v>348.13135740924</v>
+        <v>361.298387336248</v>
       </c>
       <c r="S14">
-        <v>0.002775933349363301</v>
+        <v>0.001317006344755928</v>
       </c>
       <c r="T14">
-        <v>0.002775933349363301</v>
+        <v>0.001317006344755927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H15">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q15">
-        <v>38.25154592899111</v>
+        <v>38.44503124297423</v>
       </c>
       <c r="R15">
-        <v>344.26391336092</v>
+        <v>346.0052811867681</v>
       </c>
       <c r="S15">
-        <v>0.002745095084777133</v>
+        <v>0.001261259852283636</v>
       </c>
       <c r="T15">
-        <v>0.002745095084777133</v>
+        <v>0.001261259852283636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H16">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N16">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q16">
-        <v>25.86086334860778</v>
+        <v>59.18471183001913</v>
       </c>
       <c r="R16">
-        <v>232.74777013747</v>
+        <v>532.6624064701721</v>
       </c>
       <c r="S16">
-        <v>0.001855886530655277</v>
+        <v>0.001941663161317399</v>
       </c>
       <c r="T16">
-        <v>0.001855886530655277</v>
+        <v>0.001941663161317399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H17">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N17">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O17">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P17">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q17">
-        <v>7.668135451066112</v>
+        <v>6.036779312424889</v>
       </c>
       <c r="R17">
-        <v>69.013219059595</v>
+        <v>54.331013811824</v>
       </c>
       <c r="S17">
-        <v>0.0005502983062489275</v>
+        <v>0.0001980476315843641</v>
       </c>
       <c r="T17">
-        <v>0.0005502983062489274</v>
+        <v>0.0001980476315843641</v>
       </c>
     </row>
   </sheetData>
